--- a/기획서/NHJ/프로젝트_S_키우기_20240529.xlsx
+++ b/기획서/NHJ/프로젝트_S_키우기_20240529.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhj70\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GItHub\기획서\NHJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -200,18 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,10 +328,6 @@
   <si>
     <t>전투
 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 전체에게 적용되는 패시브, 방치형의 주요 스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,6 +572,22 @@
   </si>
   <si>
     <t>공격 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,13 +728,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,11 +752,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1077,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1086,7 +1092,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1105,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1112,43 +1118,43 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>46</v>
+      <c r="B5" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>73</v>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1159,9 +1165,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1172,9 +1178,9 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1185,9 +1191,9 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>139</v>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1200,8 +1206,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1213,7 +1219,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1226,12 +1232,12 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>92</v>
+      <c r="D13" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1241,10 +1247,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
-        <v>93</v>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1254,10 +1260,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
-        <v>94</v>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1267,10 +1273,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
-        <v>105</v>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1280,10 +1286,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
-        <v>95</v>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1293,9 +1299,9 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2"/>
@@ -1306,9 +1312,9 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2"/>
@@ -1319,9 +1325,9 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2"/>
@@ -1332,9 +1338,9 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2"/>
@@ -1345,11 +1351,11 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="2"/>
@@ -1360,9 +1366,9 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="2"/>
@@ -1373,9 +1379,9 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="2"/>
@@ -1386,11 +1392,11 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="2"/>
@@ -1401,10 +1407,10 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
-        <v>104</v>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1414,9 +1420,9 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="2"/>
@@ -1427,10 +1433,10 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1439,107 +1445,107 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="7" t="s">
-        <v>121</v>
+      <c r="B30" s="13"/>
+      <c r="C30" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1549,77 +1555,77 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1629,8 +1635,8 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1640,8 +1646,8 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1651,8 +1657,8 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1666,8 +1672,8 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="2" t="s">
         <v>25</v>
       </c>
@@ -1679,8 +1685,8 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -1692,8 +1698,8 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="2" t="s">
         <v>27</v>
       </c>
@@ -1705,8 +1711,8 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="2" t="s">
         <v>28</v>
       </c>
@@ -1718,8 +1724,8 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="2" t="s">
         <v>29</v>
       </c>
@@ -1731,8 +1737,8 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="2" t="s">
         <v>30</v>
       </c>
@@ -1744,8 +1750,8 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="2" t="s">
         <v>31</v>
       </c>
@@ -1757,8 +1763,8 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -1770,8 +1776,8 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="2" t="s">
         <v>32</v>
       </c>
@@ -1783,7 +1789,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -1793,19 +1799,19 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="7" t="s">
-        <v>122</v>
+      <c r="B55" s="13"/>
+      <c r="C55" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1815,10 +1821,10 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="9"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1828,10 +1834,10 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="9"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1841,10 +1847,10 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="9"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1854,10 +1860,10 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="9"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1867,10 +1873,10 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="9"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1880,10 +1886,10 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="9"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1893,10 +1899,10 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="9"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1906,10 +1912,10 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1919,8 +1925,8 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -1934,8 +1940,8 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="2" t="s">
         <v>38</v>
       </c>
@@ -1947,10 +1953,10 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -1960,10 +1966,10 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -1973,7 +1979,7 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="11"/>
       <c r="D68" s="2" t="s">
         <v>39</v>
@@ -1986,8 +1992,10 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -1997,8 +2005,8 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -2008,9 +2016,9 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2021,12 +2029,12 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="13"/>
+      <c r="C72" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2036,10 +2044,10 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2049,8 +2057,8 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -2060,7 +2068,7 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="11"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="5" t="s">
         <v>41</v>
       </c>
@@ -2073,41 +2081,41 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>79</v>
+      <c r="B76" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2118,9 +2126,9 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2131,41 +2139,39 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="5" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2176,9 +2182,9 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="5" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2189,7 +2195,7 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -2199,14 +2205,14 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="5"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2217,7 +2223,7 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="11"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="5" t="s">
         <v>8</v>
       </c>
@@ -2230,26 +2236,26 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>77</v>
+      <c r="B87" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2260,9 +2266,9 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2273,9 +2279,9 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2286,9 +2292,9 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="11"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2299,9 +2305,9 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="11"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2312,9 +2318,9 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="11"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2325,9 +2331,9 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2338,9 +2344,9 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="11"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2351,14 +2357,14 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>64</v>
+      <c r="B96" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -2368,10 +2374,10 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
       <c r="D97" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -2381,10 +2387,10 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -2394,10 +2400,10 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
       <c r="D99" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -2407,10 +2413,10 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
       <c r="D100" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -2420,8 +2426,8 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="8"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -2431,12 +2437,12 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="7" t="s">
-        <v>61</v>
+      <c r="B102" s="10"/>
+      <c r="C102" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -2446,10 +2452,10 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -2459,9 +2465,9 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2472,9 +2478,9 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2485,9 +2491,9 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2498,9 +2504,9 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2511,9 +2517,9 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2524,19 +2530,27 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B54:B75"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="C64:C68"/>
     <mergeCell ref="B96:B109"/>
     <mergeCell ref="B87:B95"/>
     <mergeCell ref="B2:B4"/>
@@ -2552,14 +2566,6 @@
     <mergeCell ref="C96:C101"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C64:C70"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B54:B75"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B53"/>
-    <mergeCell ref="C44:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
